--- a/biology/Mycologie/Alessioporus_ichnusanus/Alessioporus_ichnusanus.xlsx
+++ b/biology/Mycologie/Alessioporus_ichnusanus/Alessioporus_ichnusanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet de Sardaigne, Bolet côtelé
 Alessioporus ichnusanus, le Bolet de Sardaigne, anciennement Xerocomus ichnusanus, est une espèce rare de champignon (Fungi) basidiomycète du genre Alessioporus dans la famille des Boletaceae. Il est caractérisé par sa chair uniformément bleuissante à la coupe, son pied orné d'un réseau et son habitat méditerranéen. Il pousse souvent en touffes de plusieurs individus.
@@ -512,16 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Alessioporus ichnusanus (Alessio, Galli &amp; Littini) Gelardi, Vizzini &amp; Simonini, 2014[1]. 
-L'espèce a été initialement classée dans le genre Xerocomus sous le basionyme Xerocomus ichnusanus Alessio, Galli &amp; Littini, 1984[1].
-Synonymes
-Alessioporus ichnusanus a pour synonymes[1] :
-Boletus ichnusanus (Alessio, Galli &amp; Littini) Oolbekk., 1991
-Xerocomus ichnusanus Alessio, Galli &amp; Littini, 1984
-Étymologie
-L'espèce a été décrite en Sardaigne, dont l'ancien nom est "Ichnusa", du grec signifiant "empreinte", d'après l'empreinte de Zeus.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Alessioporus ichnusanus (Alessio, Galli &amp; Littini) Gelardi, Vizzini &amp; Simonini, 2014. 
+L'espèce a été initialement classée dans le genre Xerocomus sous le basionyme Xerocomus ichnusanus Alessio, Galli &amp; Littini, 1984.
 </t>
         </is>
       </c>
@@ -547,18 +555,130 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alessioporus ichnusanus a pour synonymes :
+Boletus ichnusanus (Alessio, Galli &amp; Littini) Oolbekk., 1991
+Xerocomus ichnusanus Alessio, Galli &amp; Littini, 1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alessioporus_ichnusanus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alessioporus_ichnusanus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite en Sardaigne, dont l'ancien nom est "Ichnusa", du grec signifiant "empreinte", d'après l'empreinte de Zeus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alessioporus_ichnusanus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alessioporus_ichnusanus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Alessioporus ichnusanus, le Bolet de Sardaigne, sont les suivantes :
-Son chapeau mesure 3-5 (7) cm, il est d'abord hémisphérique, convexe, puis aplani ou même légèrement déprimé. La cuticule est glabre ou à peine fibrilleuse, parfois un peu craquelée, de couleur fauve puis brunâtre avec des tons violacés[2].
-L'hyménophore présente des tubes d'abord jaune citron, puis jaune olivâtre, bleuissant au froissement. Les pores sont anguleux, d'abord jaune citron à l'état jeune, plus tard avec une teinte olivâtre et devenant brun rouille avec l'âge, bleuissant au froissement[2].
-Son stipe mesure 3-6(8) x 1,5-2,5 cm, il est fusiforme et parfois un peu renflé au centre, jaune paille au sommet, brunâtre au dessous, s'assombrissant vers la base qui peut être presque noirâtre. Il possède un réseau allongé très net dans les deux tiers supérieurs. Bleuissant faiblement à la manipulation[2].
-La chair est blanchâtre dans le chapeau, jaune citron pâle dans le haut du stipe et brun vineux à sa base, bleuissante à l'air[2].
-Caractéristiques microscopiques
-Ses spores mesurent 10-14.5 x 4.5-7 µ[2].
+Son chapeau mesure 3-5 (7) cm, il est d'abord hémisphérique, convexe, puis aplani ou même légèrement déprimé. La cuticule est glabre ou à peine fibrilleuse, parfois un peu craquelée, de couleur fauve puis brunâtre avec des tons violacés.
+L'hyménophore présente des tubes d'abord jaune citron, puis jaune olivâtre, bleuissant au froissement. Les pores sont anguleux, d'abord jaune citron à l'état jeune, plus tard avec une teinte olivâtre et devenant brun rouille avec l'âge, bleuissant au froissement.
+Son stipe mesure 3-6(8) x 1,5-2,5 cm, il est fusiforme et parfois un peu renflé au centre, jaune paille au sommet, brunâtre au dessous, s'assombrissant vers la base qui peut être presque noirâtre. Il possède un réseau allongé très net dans les deux tiers supérieurs. Bleuissant faiblement à la manipulation.
+La chair est blanchâtre dans le chapeau, jaune citron pâle dans le haut du stipe et brun vineux à sa base, bleuissante à l'air.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alessioporus_ichnusanus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alessioporus_ichnusanus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 10-14.5 x 4.5-7 µ.
 </t>
         </is>
       </c>
